--- a/medicine/Enfance/Marie-Jeanne_Barbier/Marie-Jeanne_Barbier.xlsx
+++ b/medicine/Enfance/Marie-Jeanne_Barbier/Marie-Jeanne_Barbier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Jeanne Barbier, née le 15 mai 1944 à Saint-Jean-en-Royans (Drôme),  est une autrice française de romans pour la jeunesse. Elle a publié six romans policiers pour la jeunesse et un conte pour enfant, pour la plupart édités chez Actes Sud et traduits en italien. 
 </t>
@@ -511,14 +523,16 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La balade du père Grégoire, conte pour enfant, Éditions Balivernes, 2007
 Mercredi ou jamais, roman policier, Éditions Actes Sud, paru en 2001
 Des Inconnus dans le jardin, roman policier, Éditions Actes Sud, paru en  2000
 La Jeune fille à la fenêtre, roman policier, Éditions Actes Sud, paru en 1999
 Des Requins dans le pré, roman policier, Éditions Actes Sud, paru en 1998
-Le Mystère du Pas-du-Loup, roman policier, Éditions Actes Sud, paru en 1997[1]
+Le Mystère du Pas-du-Loup, roman policier, Éditions Actes Sud, paru en 1997
 Le Secret du caniche, roman policier, Éditions Milan, paru en 1992</t>
         </is>
       </c>
